--- a/src/main/resources/templates/excel/TemplateDSA.xlsx
+++ b/src/main/resources/templates/excel/TemplateDSA.xlsx
@@ -7,13 +7,13 @@
     <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Recap Salary" sheetId="1" r:id="rId1"/>
     <sheet name="Recap September 2023 (2)" sheetId="3" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AE$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AA$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$C:$C,Sheet1!$2:$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Recap Salary'!$A$2:$AE$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Recap Salary'!$A$1:$AA$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Recap Salary'!$C:$C,'Recap Salary'!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3323,7 +3323,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.0952380952381" defaultRowHeight="15.75" customHeight="1"/>
@@ -3485,7 +3485,7 @@
       <c r="AC2" s="103"/>
       <c r="AD2" s="104"/>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" ht="12.75" spans="1:30">
       <c r="A3" s="79"/>
       <c r="B3" s="79"/>
       <c r="C3" s="79"/>
@@ -3515,7 +3515,7 @@
       <c r="AA3" s="79"/>
       <c r="AD3" s="105"/>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" ht="12.75" spans="1:30">
       <c r="A4" s="79"/>
       <c r="B4" s="79"/>
       <c r="C4" s="79"/>

--- a/src/main/resources/templates/excel/TemplateDSA.xlsx
+++ b/src/main/resources/templates/excel/TemplateDSA.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr hidePivotFieldList="1"/>
   <bookViews>
@@ -3056,6 +3056,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3323,7 +3330,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.0952380952381" defaultRowHeight="15.75" customHeight="1"/>
